--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81065589-F794-4C50-A54E-E025B7E4FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{81065589-F794-4C50-A54E-E025B7E4FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A26BFC-763F-4F36-9EF6-368AE4E291E2}"/>
   <bookViews>
     <workbookView xWindow="10" yWindow="0" windowWidth="22380" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>Height</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>white</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -428,7 +431,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -461,7 +464,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>81</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -480,8 +483,8 @@
       <c r="D3">
         <v>74</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
+      <c r="E3">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -597,10 +600,10 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -628,7 +631,7 @@
         <v>4</v>
       </c>
       <c r="D12">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>

--- a/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
+++ b/starter-analysis-exercise/data/raw-data/exampledata2.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{81065589-F794-4C50-A54E-E025B7E4FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A26BFC-763F-4F36-9EF6-368AE4E291E2}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="8_{81065589-F794-4C50-A54E-E025B7E4FEA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0030E3E-3149-40FB-9546-39F7F350D05F}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="0" windowWidth="22380" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10" yWindow="0" windowWidth="22380" windowHeight="13280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>Height</t>
   </si>
@@ -102,6 +102,18 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Inseam Length</t>
+  </si>
+  <si>
+    <t>inseam in centimeters</t>
+  </si>
+  <si>
+    <t>hair color, natural or other</t>
+  </si>
+  <si>
+    <t>black/brown/blond/white/other</t>
   </si>
 </sst>
 </file>
@@ -163,6 +175,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
@@ -695,10 +711,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A2C8F0-62B4-4D60-B490-D490A3E0B40F}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,6 +768,28 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
